--- a/metadatos.xlsx
+++ b/metadatos.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27204"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Google Drive\DS4B\Youtube\Habitaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cespe\Desktop\PowerMBA\Portfolio\app_inquilino_ideal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64607D6C-CB3B-4DF2-A775-1DD6E0D7E8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDBC482-7711-429D-A805-9E39F1376239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54ACDEC1-9C8F-46DA-B2F1-82D37B75FB8F}"/>
+    <workbookView xWindow="28680" yWindow="2580" windowWidth="24240" windowHeight="13140" xr2:uid="{54ACDEC1-9C8F-46DA-B2F1-82D37B75FB8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla1" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -200,95 +189,95 @@
     <t>Columna1</t>
   </si>
   <si>
-    <t>¿Cuál es tu horario de trabajo típico?</t>
-  </si>
-  <si>
-    <t>¿Eres madrugador o nocturno?</t>
-  </si>
-  <si>
-    <t>¿Cuál es tu nivel educativo?</t>
-  </si>
-  <si>
-    <t>¿Participas en deportes o actividades recreativas?</t>
-  </si>
-  <si>
-    <t>¿Te gusta cocinar o prefieres pedir comida?</t>
-  </si>
-  <si>
-    <t>¿Eres una persona ordenada o más relajada en ese aspecto?</t>
-  </si>
-  <si>
-    <t>¿Qué géneros de música te gustan?</t>
-  </si>
-  <si>
-    <t>¿Tienes la costumbre de escuchar música en alto volumen?</t>
-  </si>
-  <si>
-    <t>¿Eres fumador?</t>
-  </si>
-  <si>
-    <t>¿Tu plan perfecto sería tarde en casa viendo series o salir a tomar algo?</t>
-  </si>
-  <si>
-    <t>¿Tocas algún instrumento musical?</t>
-  </si>
-  <si>
-    <t>¿Te gusta leer?</t>
-  </si>
-  <si>
     <t>VALORES</t>
   </si>
   <si>
     <t>VARIABLE</t>
   </si>
   <si>
-    <t>mañana, tarde, noche</t>
-  </si>
-  <si>
-    <t>madrugador, nocturno</t>
-  </si>
-  <si>
-    <t>primaria, secundaria, universitaria</t>
-  </si>
-  <si>
-    <t>no, si</t>
-  </si>
-  <si>
-    <t>¿Te gusta el cine?</t>
-  </si>
-  <si>
-    <t>¿Prefieres vivir con mascotas o sin ellas?</t>
-  </si>
-  <si>
-    <t>sin mascotas, con mascotas</t>
-  </si>
-  <si>
-    <t>cocinar, pedir comida</t>
-  </si>
-  <si>
-    <t>¿Sigues alguna dieta?</t>
-  </si>
-  <si>
-    <t>¿Tienes visitas con frecuencia?</t>
-  </si>
-  <si>
-    <t>ordenada, relajada</t>
-  </si>
-  <si>
-    <t>pop, reggaeton, rock, clasica</t>
-  </si>
-  <si>
-    <t>casa, salir</t>
-  </si>
-  <si>
-    <t>¿Prefieres un sitio animado que uno silencioso?</t>
+    <t>What is your typical work schedule?</t>
+  </si>
+  <si>
+    <t>Are you an early riser or a night owl?</t>
+  </si>
+  <si>
+    <t>Do you prefer a lively place over a quiet one?</t>
+  </si>
+  <si>
+    <t>What is your educational level?</t>
+  </si>
+  <si>
+    <t>Do you like to reading?</t>
+  </si>
+  <si>
+    <t>Do you like going to cinema</t>
+  </si>
+  <si>
+    <t>Do you participate in sports or recreational activities?</t>
+  </si>
+  <si>
+    <t>Do you prefer to live with pets or without them?</t>
+  </si>
+  <si>
+    <t>Do you like cooking or do you prefer ordering food?</t>
+  </si>
+  <si>
+    <t>Do you follow any diet?</t>
+  </si>
+  <si>
+    <t>Are you a smoker?</t>
+  </si>
+  <si>
+    <t>Do you have visitors often?</t>
+  </si>
+  <si>
+    <t>Are you an organized person or more relaxed in that aspect?</t>
+  </si>
+  <si>
+    <t>What genres of music do you like?</t>
+  </si>
+  <si>
+    <t>Do you have the habit of listening to music at high volume?</t>
+  </si>
+  <si>
+    <t>Would your perfect plan be spending the evening at home watching series or going out for a drink?</t>
+  </si>
+  <si>
+    <t>Do you play any musical instrument?</t>
+  </si>
+  <si>
+    <t>morning, evening, nights</t>
+  </si>
+  <si>
+    <t>early riser or night owl</t>
+  </si>
+  <si>
+    <t>no, yes</t>
+  </si>
+  <si>
+    <t>Elementary school, High school, University</t>
+  </si>
+  <si>
+    <t>with pets, without pets</t>
+  </si>
+  <si>
+    <t>cook, ask for cook</t>
+  </si>
+  <si>
+    <t>organized, relaxed</t>
+  </si>
+  <si>
+    <t>pop, reggaeton, rock, classic</t>
+  </si>
+  <si>
+    <t>home, go out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +287,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,11 +320,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +677,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,147 +687,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -842,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B10B776-3076-4EAA-AFAF-95394883AB09}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
